--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2242446.367815182</v>
+        <v>2367293.250411694</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5166515.509152744</v>
+        <v>5449727.984203261</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>213.8072150214569</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>113.8897543996187</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.7226312227369</v>
+        <v>30.03139282121247</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.0164959768354</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>211.6431751168418</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.2405326491154</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>262.8877661351578</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,22 +1138,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>240.1485718096585</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>275.0492858449804</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>118.5910927893988</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>191.9089456912525</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,19 +1378,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>8.237204307570813</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>60.78001549303776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>116.7267036725886</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527475</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2239,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>56.95997704284446</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>141.7246276011661</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2767,13 +2769,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>157.8824880649885</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>129.7139627068451</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684289</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0301798245179</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170504</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.9377197079714</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.30825486907173</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>46.4530301960594</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.0638324846691</v>
+        <v>1030.653802879758</v>
       </c>
       <c r="C2" t="n">
-        <v>812.9617637084964</v>
+        <v>996.5517341035852</v>
       </c>
       <c r="D2" t="n">
-        <v>781.092382923345</v>
+        <v>964.6823533184338</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
         <v>323.4906125312521</v>
@@ -4331,49 +4333,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>988.6088745483262</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>1057.158688984204</v>
       </c>
       <c r="Y2" t="n">
-        <v>869.3229989291729</v>
+        <v>1052.912969324262</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1198.607791457627</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>516.14417192365</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4494,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>886.4031665373657</v>
+        <v>738.2975308660841</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>707.9627906426372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1191.826995549805</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.391236090724</v>
+        <v>1157.724926773632</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>721.8151419480769</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>692.0808011467761</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>264.2133715559839</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663907</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663907</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2041.514749115345</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1622.372285694656</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1214.086161994309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.398585929168</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>732.2148722124709</v>
+        <v>791.3375607104109</v>
       </c>
       <c r="C7" t="n">
-        <v>559.6531606956959</v>
+        <v>791.3375607104109</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>625.4595679119336</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>455.7015641626709</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1151.45316161735</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1151.45316161735</v>
+        <v>1264.14898606289</v>
       </c>
       <c r="X7" t="n">
-        <v>1151.45316161735</v>
+        <v>1018.757231396303</v>
       </c>
       <c r="Y7" t="n">
-        <v>924.0334909314581</v>
+        <v>791.3375607104109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.069156190556</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.967087414383</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1829.291861345744</v>
       </c>
       <c r="W8" t="n">
-        <v>1208.676101675288</v>
+        <v>1828.476810797181</v>
       </c>
       <c r="X8" t="n">
-        <v>1193.574042295002</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1189.32832263506</v>
+        <v>1001.048223676146</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.5617128800624</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>546.0000013632873</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.377099909325</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>838.3506954956167</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>718.5617128800624</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.5617128800624</v>
+        <v>966.8681021663376</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1649.038265178759</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1210.895792362182</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>774.9860075366264</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>774.9860075366264</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162085</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>910.4879051697988</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1852.690868663607</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="M11" t="n">
-        <v>2794.893832157415</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N11" t="n">
-        <v>2794.893832157415</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>3737.096795651223</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3737.096795651223</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581042</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888761</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299794</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879105</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.038265178759</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720784</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.962574832099</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885521</v>
+        <v>3205.876241053795</v>
       </c>
       <c r="C13" t="n">
-        <v>754.071938771777</v>
+        <v>3033.31452953702</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732997</v>
+        <v>2867.436536738543</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>2697.67853298928</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>2697.67853298928</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162085</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162085</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162085</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360018</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>3397.694859772782</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035995</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035995</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035995</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869391</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827985</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581042</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.263710514869</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3039.408255925902</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.265792505213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2502.36003121977</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720784</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7266885264744</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162085</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162085</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162085</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,7 +5542,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>809.0580335016147</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>809.0580335016147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>809.0580335016147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1628.781199980813</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C22" t="n">
-        <v>811.7546776883914</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G22" t="n">
         <v>242.1630145804051</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E28" t="n">
         <v>673.1212928181459</v>
@@ -6415,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2132.904553083697</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6472,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,22 +6785,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>269.4112304877946</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1103.761522445973</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2178.821488698832</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7017,22 +7019,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1083.7810821021</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C37" t="n">
-        <v>911.2193705853248</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>745.3413777868475</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>575.5833740375847</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>398.8763199993409</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>233.2850450251686</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1748.411126173566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.599700821087</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7202,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1526.457795636975</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.315322820399</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1088.315322820399</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>654.5405779786938</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>226.6731483879016</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>90.66050204879572</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>925.0107940069737</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>925.0107940069737</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>925.0107940069737</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.213757500782</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O41" t="n">
-        <v>2809.416720994589</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.726595827985</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3547.658357898059</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3185.041407831885</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2780.185953242919</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.04348982223</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1952.757366121883</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.6314506292333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>613.0697391124583</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>447.191746313981</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>277.4337425647182</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>100.7266885264744</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>977.4500693482205</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2213.229876662986</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035995</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764879</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3723.228786764879</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3723.228786764879</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3318.373332175913</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2899.230868755224</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2490.944745054877</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885521</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C46" t="n">
-        <v>754.071938771777</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732997</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162085</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.869740034112</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.4500693482205</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>300.8741568635481</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8382,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452606</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.48875245436329</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.7440643176119</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>168.8387779969839</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10130,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,19 +10834,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.66958468401502</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>436.0375818946163</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>415.3515509873135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.1553467313929</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.4765587907544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>143.6516710866782</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.2592358276481</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>26.33579611060404</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.789189859684171</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>26.33579611060392</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>248.3536732384509</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>147.0988550720872</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.853110173512</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453446.4422937315</v>
+        <v>461901.3239092483</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>453446.4422937315</v>
+        <v>463423.6439398654</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384251.8367307122</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384251.8367307123</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475241.5600287219</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384251.8367307123</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384251.8367307122</v>
+        <v>475241.560028722</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958883</v>
+        <v>509339.9538958882</v>
       </c>
       <c r="E2" t="n">
-        <v>404686.1866808238</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="J2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="J2" t="n">
-        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.1866808237</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221039</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.8086063692</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574194</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.42103448477</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.42103448477</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
@@ -26448,16 +26450,16 @@
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="O4" t="n">
+        <v>54561.82510962271</v>
+      </c>
+      <c r="P4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44115.42103448478</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44115.42103448477</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>114027.1854477915</v>
       </c>
       <c r="C6" t="n">
-        <v>256218.4861075014</v>
+        <v>215814.9403988542</v>
       </c>
       <c r="D6" t="n">
-        <v>256218.4861075015</v>
+        <v>275589.6395383583</v>
       </c>
       <c r="E6" t="n">
-        <v>145228.8846834033</v>
+        <v>185879.5319940198</v>
       </c>
       <c r="F6" t="n">
-        <v>302706.1796055073</v>
+        <v>368234.6412150695</v>
       </c>
       <c r="G6" t="n">
-        <v>278734.8326087004</v>
+        <v>368234.6412150695</v>
       </c>
       <c r="H6" t="n">
-        <v>368234.6412150695</v>
+        <v>368234.6412150696</v>
       </c>
       <c r="I6" t="n">
         <v>368234.6412150695</v>
       </c>
       <c r="J6" t="n">
-        <v>257220.1758700792</v>
+        <v>257220.1758700793</v>
       </c>
       <c r="K6" t="n">
+        <v>315188.7865762971</v>
+      </c>
+      <c r="L6" t="n">
+        <v>358842.339488447</v>
+      </c>
+      <c r="M6" t="n">
+        <v>216034.4702770818</v>
+      </c>
+      <c r="N6" t="n">
         <v>368234.6412150695</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>368234.6412150696</v>
+      </c>
+      <c r="P6" t="n">
         <v>368234.6412150695</v>
-      </c>
-      <c r="M6" t="n">
-        <v>236798.39405765</v>
-      </c>
-      <c r="N6" t="n">
-        <v>368234.6412150696</v>
-      </c>
-      <c r="O6" t="n">
-        <v>302706.1796055072</v>
-      </c>
-      <c r="P6" t="n">
-        <v>302706.1796055072</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>215.6297823718309</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>301.0612843868637</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27543,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.4228427562959</v>
+        <v>195.1140811578203</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.7445521115756</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>185.740677946127</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>33.97868022137715</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>6.418374234413591</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>191.4021151676414</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>83.94149472053135</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>124.3467443305229</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>33.23652828778035</v>
       </c>
     </row>
     <row r="11">
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34716,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>385.2554146752025</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N4" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>300.8741568635481</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>658.3613220306675</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452606</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.48875245436329</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.439739811392</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.7440643176119</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>168.8387779969839</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.8387779969848</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37324,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.66958468401502</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>436.0375818946163</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2367293.250411694</v>
+        <v>2366768.068042662</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.0725916869</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>391.5755379917272</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>213.8072150214569</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.03139282121247</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>211.6431751168418</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>259.2847127716591</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964672</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>262.8877661351578</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>170.4850594777219</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>275.0492858449804</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9089456912525</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629674</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="12">
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78001549303776</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864814</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2098,10 +2098,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.4889870101585</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>212.7767073753812</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2532,13 +2532,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>166.1507936381773</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>98.73120706589778</v>
       </c>
       <c r="E28" t="n">
-        <v>141.7246276011661</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>67.42894579208244</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800589</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884111</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773001</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314653</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800152</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556945</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655119</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864826</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633433</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.5504749248091</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016075</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117703</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978615</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244308</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307157</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>21.203643081682</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149835</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573295</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394259</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695716</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.8096778684289</v>
+        <v>225.145473979033</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800589</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884111</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773001</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.43699739329</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315585</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800152</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655119</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864826</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633433</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317974</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016075</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704927</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117703</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978615</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244308</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>13.99728392830417</v>
+        <v>157.6489550149835</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573295</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394259</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695716</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571928</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>225.145473979033</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800589</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884111</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773001</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791341665</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800152</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655119</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864826</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633433</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317974</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016075</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704927</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117703</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978615</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>24.34318456170184</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149835</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573295</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394259</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695716</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>225.145473979033</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800589</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884111</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773001</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315585</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800152</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655119</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864826</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633433</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317974</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016075</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704927</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117703</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978615</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244308</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665294</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149835</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573295</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394259</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819015821</v>
       </c>
       <c r="W46" t="n">
-        <v>46.4530301960594</v>
+        <v>269.3061403695716</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>225.145473979033</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1030.653802879758</v>
+        <v>804.4522061243825</v>
       </c>
       <c r="C2" t="n">
-        <v>996.5517341035852</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>964.6823533184338</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
         <v>323.4906125312521</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1057.158688984204</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.912969324262</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>983.6892855326716</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>738.2975308660841</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>707.9627906426372</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.826995549805</v>
+        <v>1382.086414623702</v>
       </c>
       <c r="C5" t="n">
-        <v>1157.724926773632</v>
+        <v>943.9439418071256</v>
       </c>
       <c r="D5" t="n">
-        <v>721.8151419480769</v>
+        <v>912.0745610219742</v>
       </c>
       <c r="E5" t="n">
-        <v>692.0808011467761</v>
+        <v>478.2998161802694</v>
       </c>
       <c r="F5" t="n">
-        <v>264.2133715559839</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087173</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717422</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717422</v>
+        <v>1728.364480676019</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717422</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.55210234689</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663907</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="V5" t="n">
-        <v>2042.329799663907</v>
+        <v>2075.350505591518</v>
       </c>
       <c r="W5" t="n">
-        <v>2041.514749115345</v>
+        <v>1670.495051002552</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.372285694656</v>
+        <v>1408.591300728149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1214.086161994309</v>
+        <v>1404.345581068206</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>674.5331706342554</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5331706342554</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342554</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>972.398585929168</v>
+        <v>431.6596472970916</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>791.3375607104109</v>
+        <v>593.0357356940394</v>
       </c>
       <c r="C7" t="n">
-        <v>791.3375607104109</v>
+        <v>420.4740241772644</v>
       </c>
       <c r="D7" t="n">
-        <v>625.4595679119336</v>
+        <v>254.596031378787</v>
       </c>
       <c r="E7" t="n">
-        <v>455.7015641626709</v>
+        <v>84.8380276295243</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2498.899221627944</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>1264.14898606289</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>1018.757231396303</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>791.3375607104109</v>
+        <v>784.8543544130266</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316419</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>311.0390944510467</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>279.1697136658952</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>249.4353728645945</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>225.6083473142063</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>2471.176067606882</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1829.291861345744</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.476810797181</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.334347376492</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.048223676146</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -5007,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K12" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3205.876241053795</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>3033.31452953702</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>2867.436536738543</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>2697.67853298928</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>2697.67853298928</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>2636.284577945808</v>
+        <v>242.163014580405</v>
       </c>
       <c r="H13" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K13" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>3870.506285125261</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X13" t="n">
-        <v>3625.114530458674</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>3397.694859772782</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5336,16 +5336,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>2890.535802145304</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G16" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>4932.38282354235</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,43 +5521,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5573,16 +5573,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K19" t="n">
         <v>463.598980006605</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296836</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296836</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>475.2748675296836</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1632.322702740234</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176681</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.233352746988</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580384</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="21">
@@ -5810,16 +5810,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
         <v>463.598980006605</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2674.992180466348</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.697820754631</v>
+        <v>1533.485159127727</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,22 +6308,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>982.1554751127505</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>816.2774823142732</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6411,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4945.891623321967</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2650.81040391895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2404.930957497405</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6925,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423631</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993938</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827334</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785929</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538985</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722822</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7007,49 +7007,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7058,10 +7058,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.757289365886</v>
+        <v>875.5388337745592</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>702.9771222577839</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.219118508521</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.512064470277</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961045</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961045</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354696</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7122,7 +7122,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
@@ -7140,7 +7140,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1008.757289365886</v>
+        <v>982.1554751127502</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423631</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993938</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827334</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785929</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538985</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722822</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595861</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7244,49 +7244,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7295,10 +7295,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477119</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309366</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324591</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831962</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449522</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745657</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S40" t="n">
-        <v>2683.3639582443</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.995166752591</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835216</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771627</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004264</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436425</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>3137.402081918264</v>
+        <v>2758.053686176688</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.233352746994</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580391</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538985</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538985</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722822</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595861</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912877</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846704</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257737</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837047</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.1996181367</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7481,13 +7481,13 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J42" t="n">
         <v>452.8828383974496</v>
@@ -7514,16 +7514,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883896</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716144</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731369</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>303.556969623874</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>126.84991558563</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>126.84991558563</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>126.84991558563</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745657</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407377</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.32291259586</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912876</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846703</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257736</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7718,13 +7718,13 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J45" t="n">
         <v>452.8828383974496</v>
@@ -7751,16 +7751,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7769,10 +7769,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.441008084184</v>
+        <v>1092.659051657337</v>
       </c>
       <c r="C46" t="n">
-        <v>842.8792965674086</v>
+        <v>920.0973401405622</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420847</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928218</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545778</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804053</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745657</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008512</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878942</v>
+        <v>2029.315500142513</v>
       </c>
       <c r="W46" t="n">
-        <v>1680.07105215565</v>
+        <v>1757.289095728804</v>
       </c>
       <c r="X46" t="n">
-        <v>1434.679297489062</v>
+        <v>1511.897341062217</v>
       </c>
       <c r="Y46" t="n">
-        <v>1207.259626803171</v>
+        <v>1284.477670376325</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>300.8741568635481</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475511</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1082.305540278396</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>702.7389601124037</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>376.7818457160647</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10120,7 +10120,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10132,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>168.8387779969835</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352487</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352487</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063050027</v>
       </c>
       <c r="O41" t="n">
-        <v>436.0375818946163</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="N44" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1553467313929</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>35.15749310933379</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>56.52943299419022</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.48800580459475</v>
       </c>
       <c r="E28" t="n">
-        <v>26.33579611060404</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>90.22000922290086</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>84.34995760698831</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.33579611060392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665294</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307157</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.203643081682</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>139.592177662729</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244308</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665294</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136972</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>21.203643081682</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307157</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.203643081682</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.0953302292582</v>
       </c>
       <c r="W46" t="n">
-        <v>222.853110173512</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>475241.5600287219</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>475241.5600287219</v>
+        <v>475241.560028722</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>475241.560028722</v>
+        <v>475241.5600287219</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.953895888</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="F2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
@@ -26337,22 +26337,22 @@
         <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="O2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
         <v>500514.7049304848</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501622</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998271</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877257</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726622263</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940156</v>
+        <v>154981.0317940154</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
+        <v>54561.82510962285</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54561.82510962283</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54561.82510962279</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962279</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="F4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54561.82510962273</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54561.82510962272</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962254</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962254</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962251</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962263</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>114027.1854477915</v>
       </c>
       <c r="C6" t="n">
-        <v>215814.9403988542</v>
+        <v>215814.9403988538</v>
       </c>
       <c r="D6" t="n">
-        <v>275589.6395383583</v>
+        <v>275589.6395383586</v>
       </c>
       <c r="E6" t="n">
-        <v>185879.5319940198</v>
+        <v>185856.3076546371</v>
       </c>
       <c r="F6" t="n">
-        <v>368234.6412150695</v>
+        <v>368211.4168756868</v>
       </c>
       <c r="G6" t="n">
-        <v>368234.6412150695</v>
+        <v>368211.4168756868</v>
       </c>
       <c r="H6" t="n">
-        <v>368234.6412150696</v>
+        <v>368211.4168756868</v>
       </c>
       <c r="I6" t="n">
-        <v>368234.6412150695</v>
+        <v>368211.4168756866</v>
       </c>
       <c r="J6" t="n">
-        <v>257220.1758700793</v>
+        <v>257196.9515306966</v>
       </c>
       <c r="K6" t="n">
-        <v>315188.7865762971</v>
+        <v>315165.5622369143</v>
       </c>
       <c r="L6" t="n">
-        <v>358842.339488447</v>
+        <v>358819.1151490645</v>
       </c>
       <c r="M6" t="n">
-        <v>216034.4702770818</v>
+        <v>216011.2459376996</v>
       </c>
       <c r="N6" t="n">
-        <v>368234.6412150695</v>
+        <v>368211.4168756869</v>
       </c>
       <c r="O6" t="n">
-        <v>368234.6412150696</v>
+        <v>368211.4168756873</v>
       </c>
       <c r="P6" t="n">
-        <v>368234.6412150695</v>
+        <v>368211.4168756869</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>42.18551009668374</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.6297823718309</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27548,13 +27548,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.1140811578203</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>185.740677946127</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>155.6663260148233</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682146</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.418374234413591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>226.8987935852468</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>83.94149472053135</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.23652828778035</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.03913730891415e-12</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-2.798386809633387e-12</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-2.249382289627302e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.609011774391923e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-2.768951734566372e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.609011774391924e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>624.8248713018638</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>300.8741568635481</v>
+        <v>30.91440664741879</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475511</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1082.305540278396</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.2456490882098</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>702.7389601124037</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>376.7818457160647</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36840,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>168.8387779969835</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352487</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352487</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908051</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960964</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37718,10 +37718,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37791,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063050027</v>
       </c>
       <c r="O41" t="n">
-        <v>436.0375818946163</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908051</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960964</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37955,10 +37955,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="N44" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908053</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960964</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
